--- a/KM5c_data/ODP_Site_999.xlsx
+++ b/KM5c_data/ODP_Site_999.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -485,10 +485,15 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
+          <t>MgCa Coretop modelled temperature</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
           <t>MgCa Temperature anomaly_Original - Coretop</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>MgCa Temperature anomaly_BAYMAG - Coretop</t>
         </is>
@@ -569,13 +574,13 @@
         </is>
       </c>
       <c r="R2">
-        <v>27.57989666</v>
+        <v>27.59</v>
       </c>
       <c r="S2">
-        <v>-3.066563330000001</v>
+        <v>-3.07169423421227</v>
       </c>
       <c r="T2">
-        <v>-3.539629989999998</v>
+        <v>-3.54476090087887</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
@@ -595,10 +600,13 @@
         <v>25.42424242424242</v>
       </c>
       <c r="Z2">
-        <v>-3.020066667</v>
+        <v>27.5334</v>
       </c>
       <c r="AA2">
-        <v>-3.493133333</v>
+        <v>-3.020066670000002</v>
+      </c>
+      <c r="AB2">
+        <v>-3.493133329999999</v>
       </c>
     </row>
   </sheetData>
